--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043718.107124047</v>
+        <v>1072562.417878774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>240.9592984209434</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>295.5683613306841</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255739</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -838,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>106.7415101663746</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.7692348190717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.47555601903419</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>5.633859180081127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>218.3734398702023</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>52.10844059186299</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>197.4083929851562</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.38235645081264</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1610,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>179.9801496149895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1821,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541062</v>
+        <v>54.47555601903408</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>178.0423747041636</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>32.64956439616986</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1935,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>124.1699884042479</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>323.9918595228955</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>41.31028204797141</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>28.44734925172066</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>376.184863643924</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>365.1737359513107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>395.0053657698354</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.501399875594893</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>84.45262105857526</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>281.6126679114866</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>341.6669494770352</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>202.4645461790994</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3162,7 +3164,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>72.65793777463465</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.5983059739478</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>64.60218603196181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>41.03250833503007</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>334.5817096732204</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>26.94389492651113</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.7806877295492</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>301.0683539834542</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.8156897822623</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>190.6879014933976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1750.153230744814</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W2" t="n">
-        <v>1750.153230744814</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1750.153230744814</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1011.161018525332</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
@@ -4425,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="F4" t="n">
         <v>562.6765899837193</v>
@@ -4483,55 +4485,55 @@
         <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.3714747656866</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C5" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1554.663866890708</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1554.663866890708</v>
       </c>
       <c r="Y5" t="n">
-        <v>962.9713148298083</v>
+        <v>1554.663866890708</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1344.046505337896</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1344.046505337896</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.046505337896</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>958.2582527396519</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1344.046505337896</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1344.046505337896</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4874,37 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240415</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261312</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644636</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969937</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5163,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940987</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E13" t="n">
-        <v>517.0200655508536</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.94416071721</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776798</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776798</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036446</v>
@@ -5276,13 +5278,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="15">
@@ -5455,16 +5457,16 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245973</v>
+        <v>336.2769833124032</v>
       </c>
       <c r="T16" t="n">
-        <v>286.532373693199</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036446</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1268.68094731003</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.68094731003</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>240.388315801204</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>240.388315801204</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5519,7 +5521,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>1838.661061815299</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>1838.661061815299</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y17" t="n">
-        <v>1448.521729839488</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5589,19 +5591,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5637,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5701,22 +5703,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>343.3601518573251</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.1194880117298</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>962.1194880117298</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>962.1194880117298</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>576.3312354134855</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>576.3312354134855</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5753,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5783,19 +5785,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1738.858660051663</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1348.719328075852</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2191.89927156006</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>2594.34031553383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>2373.5477363903</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>819.715945170047</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>433.9276925718028</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>433.9276925718028</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,28 +6007,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
         <v>2323.683332757143</v>
@@ -6063,10 +6065,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>325.6879402326643</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C25" t="n">
-        <v>156.7517573047574</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D25" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.3364050629041</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1584.823100673951</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.823100673951</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1226.5574020672</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>840.7691494689561</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6260,16 +6262,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1584.823100673951</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1584.823100673951</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6388,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>222.942782082032</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W28" t="n">
-        <v>222.942782082032</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1249.712458167646</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.712458167646</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D29" t="n">
-        <v>1249.712458167646</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E29" t="n">
-        <v>863.9242055694017</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>452.9383007797941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2639.593735007711</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2639.593735007711</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2308.53084766414</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>1955.762192394026</v>
       </c>
       <c r="X29" t="n">
-        <v>1639.851790143458</v>
+        <v>1582.296434132946</v>
       </c>
       <c r="Y29" t="n">
-        <v>1249.712458167646</v>
+        <v>1192.157102157134</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8233063694895</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
-        <v>642.8233063694895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>642.8233063694895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6625,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>642.8233063694895</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>642.8233063694895</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>642.8233063694895</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X31" t="n">
-        <v>642.8233063694895</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y31" t="n">
-        <v>642.8233063694895</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1666.648133616381</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C32" t="n">
-        <v>1297.685616675969</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D32" t="n">
-        <v>1297.685616675969</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E32" t="n">
-        <v>1297.685616675969</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6719,31 +6721,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.387305656314</v>
+        <v>2437.610758943565</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.387305656314</v>
+        <v>2084.84210367345</v>
       </c>
       <c r="X32" t="n">
-        <v>2443.387305656314</v>
+        <v>1711.37634541237</v>
       </c>
       <c r="Y32" t="n">
-        <v>2053.247973680503</v>
+        <v>1321.237013436559</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6789,13 +6791,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2265.291127898075</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="D34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S34" t="n">
-        <v>2334.714009270569</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.405821939171</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2446.939592728314</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2323.103882821189</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C35" t="n">
-        <v>1954.141365880777</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6968,19 +6970,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2323.103882821189</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2323.103882821189</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.103882821189</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y35" t="n">
-        <v>2323.103882821189</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>686.6820060902423</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>517.7458231623355</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>517.7458231623355</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V37" t="n">
-        <v>686.6820060902423</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W37" t="n">
-        <v>686.6820060902423</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>686.6820060902423</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.6820060902423</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C38" t="n">
-        <v>1546.94416071721</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D38" t="n">
-        <v>1188.678462110459</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>802.8902095122148</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>391.9043047226073</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7336,43 +7338,43 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083245</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y40" t="n">
         <v>2022.963088632153</v>
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.175505447095</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>825.2129885066836</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>466.9472898999331</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>81.15903730168884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>81.15903730168884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>81.15903730168884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7430,31 +7432,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748109</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487029</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7487,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
         <v>266.2060027641994</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>625.3202087220412</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>625.3202087220412</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>983.6384645338385</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C44" t="n">
-        <v>983.6384645338385</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D44" t="n">
-        <v>625.3727659270879</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E44" t="n">
-        <v>625.3727659270879</v>
+        <v>769.0383350781076</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>358.0524302885</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>983.6384645338385</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>983.6384645338385</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>698.7120650600563</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>698.7120650600563</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415599</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747161</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,13 +22606,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>86.79296004919146</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>74.16273934778496</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22711,10 +22713,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.7459276973573</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>242.4994585510384</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>161.4687038369819</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>401.2421865616303</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23066,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.85072763808702</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23185,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047522</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>89.79231049789979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,13 +23317,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>130.3438654849787</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>86.05160619575653</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>71.2440178932998</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787152</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.6914669593169</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>291.2732083681873</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>43.13981385480301</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.19995918853699</v>
@@ -23941,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>372.4738879728236</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,10 +24025,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9289676594883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>37.59930637687103</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>41.7023097904007</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24500,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>83.71149628510287</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>96.92615468724691</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>18.77880425095958</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>213.9469204820629</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24838,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24892,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>201.8292531834025</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>4.910330425104405</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>65.20909626467619</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,16 +24973,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>125.2877122910355</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>75.95753524357771</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6835682680299</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25208,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>263.1500724381731</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>211.1051349887979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>79.20246034757463</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,7 +25447,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>182.1533050548545</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684547</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25645,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>296.978877837846</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>44.8845042506087</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>112.7158160373407</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>46.91541089620677</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>35.02175389563959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754841</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754841</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149699</v>
       </c>
       <c r="E2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="H2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="G2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="I2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
@@ -26344,16 +26346,16 @@
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.97951497</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="H4" t="n">
         <v>9371.018034361481</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361483</v>
@@ -26442,22 +26444,22 @@
         <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="L4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="N4" t="n">
-        <v>9371.018034361485</v>
-      </c>
       <c r="O4" t="n">
-        <v>9371.018034361487</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340948</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26497,19 +26499,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26522,13 +26524,13 @@
         <v>-407502.9957973458</v>
       </c>
       <c r="C6" t="n">
-        <v>182464.8834171988</v>
+        <v>182464.8834171989</v>
       </c>
       <c r="D6" t="n">
         <v>182464.8834171989</v>
       </c>
       <c r="E6" t="n">
-        <v>216092.4834171987</v>
+        <v>216092.4834171991</v>
       </c>
       <c r="F6" t="n">
         <v>216092.4834171988</v>
@@ -26537,13 +26539,13 @@
         <v>216092.4834171988</v>
       </c>
       <c r="H6" t="n">
+        <v>216092.4834171986</v>
+      </c>
+      <c r="I6" t="n">
         <v>216092.4834171988</v>
       </c>
-      <c r="I6" t="n">
-        <v>216092.4834171987</v>
-      </c>
       <c r="J6" t="n">
-        <v>39669.26422460591</v>
+        <v>39669.26422460577</v>
       </c>
       <c r="K6" t="n">
         <v>216092.4834171988</v>
@@ -26555,13 +26557,13 @@
         <v>216092.4834171988</v>
       </c>
       <c r="N6" t="n">
-        <v>216092.4834171987</v>
+        <v>216092.4834171988</v>
       </c>
       <c r="O6" t="n">
         <v>216092.4834171988</v>
       </c>
       <c r="P6" t="n">
-        <v>216092.4834171991</v>
+        <v>216092.4834171988</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="D3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170868</v>
@@ -26753,19 +26755,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26819,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31042,10 +31044,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31218,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34702,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34869,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36452,7 +36454,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36926,7 +36928,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37087,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,13 +37794,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,19 +38104,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
